--- a/2025.1/CIMATEC/Modelagem_parametrica_simulacoes/avaliacoes/MPSD_AV2/MPSD_AV2.xlsx
+++ b/2025.1/CIMATEC/Modelagem_parametrica_simulacoes/avaliacoes/MPSD_AV2/MPSD_AV2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -522,23 +522,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
